--- a/biology/Histoire de la zoologie et de la botanique/Francis_Xavier_Williams/Francis_Xavier_Williams.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Francis_Xavier_Williams/Francis_Xavier_Williams.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Francis Xavier Williams est un entomologiste américain, né le 6 août 1882 à Martinez en Californie et mort le 16 décembre 1967 à Chula Vista en Californie.
 Il obtient son Bachelor of Arts au St. Ignatius College (aujourd’hui connu comme l’université de San Francisco) en 1903, son Bachelor of Arts à l’université Leland Stanford Junior, son Master of Arts à l’université du Kansas en 1912 et son Doctorat of Sciences à l’université Harvard en 1915.
@@ -515,7 +527,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul H. Arnaud Jr (1970), Lists of the Scientific Publications and Insect Taxa Described by Francis Xavier Williams (1882-1967). Occasional Papers of the California Academy of Sciences, 80 : 1-33.
 </t>
